--- a/static/template.xlsx
+++ b/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbre-my.sharepoint.com/personal/timo_baaij_cbre_com/Documents/Desktop/Python Powerpoint Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC10488669196F245ADE5908" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E787E29D-E8B8-4E79-ADA7-A47C0EC6ACA5}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="11_F25DC773A252ABDACC10488669196F245ADE5908" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95949F31-95C7-457E-AC00-C46C42087DCD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>Mezzanine</t>
-  </si>
-  <si>
-    <t>Titel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Environment category</t>
   </si>
@@ -94,6 +79,48 @@
   </si>
   <si>
     <t>Image 2</t>
+  </si>
+  <si>
+    <t>Warehouse Price</t>
+  </si>
+  <si>
+    <t>Office Price</t>
+  </si>
+  <si>
+    <t>Mezzanine Price</t>
+  </si>
+  <si>
+    <t>Parking Cost</t>
+  </si>
+  <si>
+    <t>Google Maps</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>Site size</t>
+  </si>
+  <si>
+    <t>Warehouse size</t>
+  </si>
+  <si>
+    <t>Office size</t>
+  </si>
+  <si>
+    <t>Mezzanine size</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Casa+Luz+del+Sur/@36.6465684,-4.6702664,15z/data=!4m2!3m1!1s0x0:0xd59e64b8765ee194?sa=X&amp;ved=2ahUKEwjVnKbGuJr9AhUobPEDHWDiDckQ_BJ6BAg6EAc</t>
+  </si>
+  <si>
+    <t>Best option</t>
+  </si>
+  <si>
+    <t>Worst option</t>
   </si>
 </sst>
 </file>
@@ -138,7 +165,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="23">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -204,25 +249,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D993C3B-4C12-4C57-A694-EB74B2E08C0B}" name="Table1" displayName="Table1" ref="A1:P3" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:P3" xr:uid="{2D993C3B-4C12-4C57-A694-EB74B2E08C0B}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{5E4817B0-811F-4537-8959-1B73DF1A9028}" name="Titel" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{7FFD41F5-E83E-465A-88E6-75AF64DAAF6D}" name="Site" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{09987B8D-FB59-47A1-BAEA-3B4842C510D0}" name="Building" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{13D00DB1-4976-47FA-83E9-3C22DB2126C7}" name="Office" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{7E26B634-56CC-4E3C-8DA7-F8E344074D85}" name="Mezzanine" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{A07DA5A9-856B-478F-9488-B17C812C63B8}" name="Parking" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{2A6E8AB9-DEAC-4815-8DCE-BE7E755FCD75}" name="Environment category" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{987837F2-9C06-4AB4-A33D-BC77BE9BCEB3}" name="Maximum building height" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{ABA9B28E-C167-4DA5-934D-D55F26FA424E}" name="Clear height" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{F05C9600-2A6E-4103-B9E0-BA74B1942837}" name="Floor load" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{A63A1611-6759-4049-A73E-AD2C366259EE}" name="Floor flatness" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{8773DEB0-1F6A-415A-8AC1-5D83CE57925C}" name="Loading docks" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{5ED35749-3DD6-4AA2-AEA3-8BCBFC9ED5CB}" name="Overhead doors" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{ACEEBFB7-D716-44AE-AA95-EE95FE8CE4C2}" name="Sprinkler" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{20AFC60E-602C-4A9A-A7F4-7A6115E537EF}" name="Image 1" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{2D04AC29-1980-461A-87DA-B3B64CBBF094}" name="Image 2" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D993C3B-4C12-4C57-A694-EB74B2E08C0B}" name="Table1" displayName="Table1" ref="A1:V3" totalsRowShown="0" dataDxfId="22">
+  <autoFilter ref="A1:V3" xr:uid="{2D993C3B-4C12-4C57-A694-EB74B2E08C0B}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{5E4817B0-811F-4537-8959-1B73DF1A9028}" name="Adress" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{20AFC60E-602C-4A9A-A7F4-7A6115E537EF}" name="Image 1" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{2D04AC29-1980-461A-87DA-B3B64CBBF094}" name="Image 2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7FFD41F5-E83E-465A-88E6-75AF64DAAF6D}" name="Site size" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{09987B8D-FB59-47A1-BAEA-3B4842C510D0}" name="Warehouse size" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{13D00DB1-4976-47FA-83E9-3C22DB2126C7}" name="Office size" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{7E26B634-56CC-4E3C-8DA7-F8E344074D85}" name="Mezzanine size" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{A07DA5A9-856B-478F-9488-B17C812C63B8}" name="Parking" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{2A6E8AB9-DEAC-4815-8DCE-BE7E755FCD75}" name="Environment category" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{987837F2-9C06-4AB4-A33D-BC77BE9BCEB3}" name="Maximum building height" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{ABA9B28E-C167-4DA5-934D-D55F26FA424E}" name="Clear height" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{F05C9600-2A6E-4103-B9E0-BA74B1942837}" name="Floor load" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{A63A1611-6759-4049-A73E-AD2C366259EE}" name="Floor flatness" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{8773DEB0-1F6A-415A-8AC1-5D83CE57925C}" name="Loading docks" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{5ED35749-3DD6-4AA2-AEA3-8BCBFC9ED5CB}" name="Overhead doors" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{ACEEBFB7-D716-44AE-AA95-EE95FE8CE4C2}" name="Sprinkler" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{2BBD4171-19EA-4036-AD6C-79CDE86AD03F}" name="Warehouse Price" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{F97BA669-96D4-41FB-93A4-C719E5F1B5D0}" name="Office Price" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{86E2935F-503E-4DFF-BB05-2D837CBCABFF}" name="Mezzanine Price" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{E188B9A9-7E98-4D24-BA6D-4A22F63EC18B}" name="Parking Cost" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{5482A1F4-9EC2-4C7E-993D-E54BF5FE4B6F}" name="Google Maps" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{69EF8A28-CD83-4E90-AAEF-E86BA990D556}" name="Comments" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -491,169 +542,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="15.140625" style="1"/>
+    <col min="1" max="16" width="15.140625" style="1"/>
+    <col min="19" max="16384" width="15.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="1">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1">
+        <v>103</v>
+      </c>
+      <c r="G2" s="1">
+        <v>104</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="T2" s="1">
+        <v>9</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>151</v>
+      </c>
+      <c r="E3" s="1">
+        <v>152</v>
+      </c>
+      <c r="F3" s="1">
+        <v>153</v>
+      </c>
+      <c r="G3" s="1">
+        <v>154</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="N3" s="1">
         <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1">
-        <v>101</v>
-      </c>
-      <c r="C2" s="1">
-        <v>102</v>
-      </c>
-      <c r="D2" s="1">
-        <v>103</v>
-      </c>
-      <c r="E2" s="1">
-        <v>104</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1">
-        <v>151</v>
-      </c>
-      <c r="C3" s="1">
-        <v>152</v>
-      </c>
-      <c r="D3" s="1">
-        <v>153</v>
-      </c>
-      <c r="E3" s="1">
-        <v>154</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="O3" s="1">
         <v>3</v>
       </c>
-      <c r="P3" s="1">
-        <v>4</v>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>9</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tvFGEICqXX4Qw1ABGXvshssun736hTHpCSB4mWHjko5iMqMFyqZr3C3oSOgaEO5o58ATwo2vanlXavor+bwHFg==" saltValue="NBJK+4q1Di6W/wTkk8//gw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fZbdfx7L4yK3V8hvCGYF34qZr/udX89VfxCxXjhDXovG6BKI52oATiv8i4ST+3q/3Qtgdng49CRRrBknrQCb2A==" saltValue="QmQGacmeyQemLHceY6lQYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/static/template.xlsx
+++ b/static/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbre-my.sharepoint.com/personal/timo_baaij_cbre_com/Documents/Desktop/Python Powerpoint Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbre-my.sharepoint.com/personal/timo_baaij_cbre_com/Documents/Desktop/Python Powerpoint Project/V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_F25DC773A252ABDACC10488669196F245ADE5908" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95949F31-95C7-457E-AC00-C46C42087DCD}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_F25DC773A252ABDACC10488669196F245ADE5908" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FADD65BE-174F-44C3-ADEC-0127C537910C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,12 +69,6 @@
     <t>Not defined</t>
   </si>
   <si>
-    <t>Example 2</t>
-  </si>
-  <si>
-    <t>Example 1</t>
-  </si>
-  <si>
     <t>Image 1</t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>Worst option</t>
+  </si>
+  <si>
+    <t>Panattoni Park Cheb</t>
+  </si>
+  <si>
+    <t>GLP Budapest</t>
   </si>
 </sst>
 </file>
@@ -156,81 +156,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
+  <dxfs count="24">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -249,31 +253,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D993C3B-4C12-4C57-A694-EB74B2E08C0B}" name="Table1" displayName="Table1" ref="A1:V3" totalsRowShown="0" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D993C3B-4C12-4C57-A694-EB74B2E08C0B}" name="Table1" displayName="Table1" ref="A1:V3" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23">
   <autoFilter ref="A1:V3" xr:uid="{2D993C3B-4C12-4C57-A694-EB74B2E08C0B}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{5E4817B0-811F-4537-8959-1B73DF1A9028}" name="Adress" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{20AFC60E-602C-4A9A-A7F4-7A6115E537EF}" name="Image 1" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{2D04AC29-1980-461A-87DA-B3B64CBBF094}" name="Image 2" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{7FFD41F5-E83E-465A-88E6-75AF64DAAF6D}" name="Site size" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{09987B8D-FB59-47A1-BAEA-3B4842C510D0}" name="Warehouse size" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{13D00DB1-4976-47FA-83E9-3C22DB2126C7}" name="Office size" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7E26B634-56CC-4E3C-8DA7-F8E344074D85}" name="Mezzanine size" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{A07DA5A9-856B-478F-9488-B17C812C63B8}" name="Parking" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{2A6E8AB9-DEAC-4815-8DCE-BE7E755FCD75}" name="Environment category" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{987837F2-9C06-4AB4-A33D-BC77BE9BCEB3}" name="Maximum building height" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{ABA9B28E-C167-4DA5-934D-D55F26FA424E}" name="Clear height" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{F05C9600-2A6E-4103-B9E0-BA74B1942837}" name="Floor load" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{A63A1611-6759-4049-A73E-AD2C366259EE}" name="Floor flatness" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{8773DEB0-1F6A-415A-8AC1-5D83CE57925C}" name="Loading docks" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{5ED35749-3DD6-4AA2-AEA3-8BCBFC9ED5CB}" name="Overhead doors" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{ACEEBFB7-D716-44AE-AA95-EE95FE8CE4C2}" name="Sprinkler" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{2BBD4171-19EA-4036-AD6C-79CDE86AD03F}" name="Warehouse Price" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{F97BA669-96D4-41FB-93A4-C719E5F1B5D0}" name="Office Price" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{86E2935F-503E-4DFF-BB05-2D837CBCABFF}" name="Mezzanine Price" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{E188B9A9-7E98-4D24-BA6D-4A22F63EC18B}" name="Parking Cost" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{5482A1F4-9EC2-4C7E-993D-E54BF5FE4B6F}" name="Google Maps" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{69EF8A28-CD83-4E90-AAEF-E86BA990D556}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{20AFC60E-602C-4A9A-A7F4-7A6115E537EF}" name="Image 1" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{2D04AC29-1980-461A-87DA-B3B64CBBF094}" name="Image 2" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7FFD41F5-E83E-465A-88E6-75AF64DAAF6D}" name="Site size" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{09987B8D-FB59-47A1-BAEA-3B4842C510D0}" name="Warehouse size" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{13D00DB1-4976-47FA-83E9-3C22DB2126C7}" name="Office size" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{7E26B634-56CC-4E3C-8DA7-F8E344074D85}" name="Mezzanine size" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{A07DA5A9-856B-478F-9488-B17C812C63B8}" name="Parking" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{2A6E8AB9-DEAC-4815-8DCE-BE7E755FCD75}" name="Environment category" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{987837F2-9C06-4AB4-A33D-BC77BE9BCEB3}" name="Maximum building height" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{ABA9B28E-C167-4DA5-934D-D55F26FA424E}" name="Clear height" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{F05C9600-2A6E-4103-B9E0-BA74B1942837}" name="Floor load" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{A63A1611-6759-4049-A73E-AD2C366259EE}" name="Floor flatness" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{8773DEB0-1F6A-415A-8AC1-5D83CE57925C}" name="Loading docks" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{5ED35749-3DD6-4AA2-AEA3-8BCBFC9ED5CB}" name="Overhead doors" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{ACEEBFB7-D716-44AE-AA95-EE95FE8CE4C2}" name="Sprinkler" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{2BBD4171-19EA-4036-AD6C-79CDE86AD03F}" name="Warehouse Price" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{F97BA669-96D4-41FB-93A4-C719E5F1B5D0}" name="Office Price" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{86E2935F-503E-4DFF-BB05-2D837CBCABFF}" name="Mezzanine Price" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{E188B9A9-7E98-4D24-BA6D-4A22F63EC18B}" name="Parking Cost" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{5482A1F4-9EC2-4C7E-993D-E54BF5FE4B6F}" name="Google Maps" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{69EF8A28-CD83-4E90-AAEF-E86BA990D556}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,86 +549,85 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="15.140625" style="1"/>
-    <col min="19" max="16384" width="15.140625" style="1"/>
+    <col min="1" max="16384" width="15.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -684,15 +687,15 @@
         <v>9</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -752,17 +755,18 @@
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fZbdfx7L4yK3V8hvCGYF34qZr/udX89VfxCxXjhDXovG6BKI52oATiv8i4ST+3q/3Qtgdng49CRRrBknrQCb2A==" saltValue="QmQGacmeyQemLHceY6lQYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dApMd+OeO9ACXpcBIdVXKrlXcHDIfpIUy2zHxa4x+6JtaV2pzf259BuJZQLCZ3bMxbGoyh5fTsGS4g8ts/EG2Q==" saltValue="vDcOPbJLkdjLxlPCJYN66w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/static/template.xlsx
+++ b/static/template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbre-my.sharepoint.com/personal/timo_baaij_cbre_com/Documents/Desktop/Python Powerpoint Project/V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="11_F25DC773A252ABDACC10488669196F245ADE5908" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{161183DB-5575-4590-B240-0C317320BF78}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="11_F25DC773A252ABDACC10488669196F245ADE5908" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{345C499F-8580-4836-9AB3-1A2A41FAF3E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Floor load</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>https://goo.gl/maps/mDwqu5562Q9FkpcC7</t>
+  </si>
+  <si>
+    <t>DC Stichtsekant</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +200,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -220,19 +237,51 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -255,42 +304,42 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="CBRE palet">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="818A8F"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="C0C4C6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="CCDCD7"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="7FB4A6"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="006A4D"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="000000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="69BE28"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="B2DE94"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="69BE28"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="000000"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -515,505 +564,644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="29" width="15.140625" style="1"/>
-    <col min="30" max="30" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9" style="1" customWidth="1"/>
-    <col min="36" max="36" width="9.42578125" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="15.140625" style="1"/>
+    <col min="1" max="1" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="29" width="15.140625" style="2"/>
+    <col min="30" max="30" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9" style="2" customWidth="1"/>
+    <col min="36" max="36" width="9.42578125" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="15.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="R1" s="8" t="s">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8" t="s">
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8" t="s">
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>100000</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>80000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>4000</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>4000</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="8">
         <v>12.2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="8">
         <v>5</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1">
-        <v>3</v>
-      </c>
-      <c r="P3" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="M3" s="5">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5">
+        <v>3</v>
+      </c>
+      <c r="P3" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="4">
-        <v>20000</v>
-      </c>
-      <c r="S3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="T3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="U3" s="4">
-        <v>20000</v>
-      </c>
-      <c r="V3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="W3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="X3" s="4">
-        <v>20000</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>20000</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AD3" s="5">
+      <c r="R3" s="9">
+        <v>20000</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="T3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="U3" s="9">
+        <v>20000</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="X3" s="9">
+        <v>20000</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>20000</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AD3" s="10">
         <v>70</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="10">
         <v>130</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AF3" s="10">
         <v>35</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AG3" s="10">
         <v>1250</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" s="10">
         <v>250</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3" s="11">
         <v>1</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3" s="11">
         <v>2</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>100000</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>80000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>4000</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>4000</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="8">
         <v>12.3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="8">
         <v>5.5</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-      <c r="P4" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>3</v>
+      </c>
+      <c r="O4" s="5">
+        <v>3</v>
+      </c>
+      <c r="P4" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="S4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="T4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="U4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="V4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="W4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="X4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AD4" s="5">
+      <c r="R4" s="9">
+        <v>20000</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="T4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="U4" s="9">
+        <v>20000</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="X4" s="9">
+        <v>20000</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>20000</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AD4" s="10">
         <v>70</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="10">
         <v>130</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="10">
         <v>35</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AG4" s="10">
         <v>1250</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AH4" s="10">
         <v>250</v>
       </c>
-      <c r="AI4" s="7">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="7">
+      <c r="AI4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="11">
         <v>4</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AK4" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>100000</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>80000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>4000</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>4000</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="8">
         <v>20</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="8">
         <v>5</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="1">
-        <v>3</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1">
-        <v>3</v>
-      </c>
-      <c r="P5" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="4">
-        <v>20000</v>
-      </c>
-      <c r="S5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="T5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="U5" s="4">
-        <v>20000</v>
-      </c>
-      <c r="V5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="W5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="X5" s="4">
-        <v>20000</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>20000</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AD5" s="5">
+      <c r="R5" s="9">
+        <v>20000</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="T5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="U5" s="9">
+        <v>20000</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="X5" s="9">
+        <v>20000</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>20000</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AD5" s="10">
         <v>70</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="10">
         <v>130</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="10">
         <v>35</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" s="10">
         <v>1250</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="10">
         <v>250</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AI5" s="11">
         <v>5</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AJ5" s="11">
         <v>6</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AK5" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>80000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4000</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4000</v>
+      </c>
+      <c r="J6" s="8">
+        <v>20</v>
+      </c>
+      <c r="K6" s="8">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="9">
+        <v>20000</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="U6" s="9">
+        <v>20000</v>
+      </c>
+      <c r="V6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="X6" s="9">
+        <v>20000</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>20000</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>70</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>130</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>35</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>1250</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>250</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="12" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="vP+2fcPX7QyiB3hn5SjQ5ZHBVC80Chvohd4h+1xk+i4Gmgpq4jtRiZi6A7GF7JBfHqeEsIXmjTN8I/cTzhua3Q==" saltValue="Aq6PCS+ab+b5IztJqnIOwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
@@ -1024,8 +1212,9 @@
     <hyperlink ref="AK3" r:id="rId1" xr:uid="{0ECEB850-1D07-4F4D-93F3-B203834524D7}"/>
     <hyperlink ref="AK5" r:id="rId2" xr:uid="{D9312D3A-75E8-46A5-9FC4-BA93A2167422}"/>
     <hyperlink ref="AK4" r:id="rId3" xr:uid="{23DE22CE-D37E-4259-8BC6-085B6979A21B}"/>
+    <hyperlink ref="AK6" r:id="rId4" xr:uid="{A81941D2-A827-4B12-BD10-DD5ACE16D1BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>